--- a/PLSstatic_predicted_variables_matrix_12.xlsx
+++ b/PLSstatic_predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:AV67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,135 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +595,135 @@
       <c r="E2" t="n">
         <v>-0.2872033486893513</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.281204532165929</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.2754462816273561</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.2699930661165069</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.2648979042389399</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.2602015206458139</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.2559336911432643</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.252114160010765</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.2487538501286888</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.2458556760640942</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.2433614123277842</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.2413250673719946</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.2397303436482797</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.2385563528555754</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.2377787882070452</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.2373707834409859</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.2373034259044847</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.2375556825741333</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.2380850731959669</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.2388599711700985</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.2398494844148625</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.2410232738373382</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.2423518668292969</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.2438070213512588</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.2453617862421468</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.2469909070994264</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.2486709939454501</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.2503804310052912</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.2520996733333962</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.2538112855862559</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.2554997430825095</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.2571516306787098</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.2587555820946161</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.2603020111321868</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.2617832322193454</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.2631932785339529</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.2645277882667649</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.2657838410467359</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.2669690090545422</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.2680713254559403</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.2690921232982371</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.2700335129279965</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.2708983113634847</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-0.2716898746877677</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +741,135 @@
       <c r="E3" t="n">
         <v>0.1930799694091112</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.2034598204319411</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2126864282315335</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.220713589055067</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2275287121335761</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2331524745524365</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2376342528169241</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2410463338675503</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.2434778389430419</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2450292843473235</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.2458363224782382</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.2459780721097989</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.2455636291147254</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.2446980087453434</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.2434795687871832</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.2419985949503075</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.2403365781137779</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.2385423763034559</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.2366967719889497</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.234855753664929</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.2330655884366107</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.2313641724444608</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.2297815866139392</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.2283406528957261</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.2270577123436008</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.2259432049076491</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.2250023616926851</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.2242360255714025</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.2236412121738722</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.2232117480595713</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.2229389964070377</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.2228123060337182</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.2228195200782531</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.2229475481246027</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.2231826720259837</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.2235109358441307</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.2239183851936127</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.2243915435785772</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.2249054125477293</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.2254654788651699</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.2260591688217032</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.226674853847469</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.227302045827518</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.2279314512503688</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +887,135 @@
       <c r="E4" t="n">
         <v>0.1808068340449145</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.189677972376635</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1973259842843225</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2038629069284063</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2093805251615992</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2139647521043578</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2177017612413514</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2206788859891271</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2229838090079524</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2247023606585682</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.225938194597247</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2267510537555519</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.2272096217599315</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.2273777803675723</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.2273124542535818</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.2270636213611764</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.2266743715794763</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.2261553136485572</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.2255620876584003</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.2249232265121567</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.2242599683406709</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.223589149110142</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.222923858487598</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.2222739942438481</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.2216465791136167</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.2210464298728882</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.2204765153740623</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.2199381672051612</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.2194316276961783</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.2189562793206594</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.2185107364215411</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.2180932600581858</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.2177018757666455</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.2173343727115719</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.2169886028171402</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.2166624825088847</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.2163540497461594</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.2160615138608259</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.2157822965709353</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.2155165920778339</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.215263407959721</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.2150213798029731</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.2147894492925882</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.2145668222745618</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1033,135 @@
       <c r="E5" t="n">
         <v>-0.05526282425607833</v>
       </c>
+      <c r="F5" t="n">
+        <v>-0.05160576713564111</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.04860360232222008</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.04626127472815796</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.04457115971817565</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.04351147016136876</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.04304695118598374</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.04313160730044041</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.0437113816421385</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.0447277030974854</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.04614211719297241</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.04786130668111121</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.04982656869660695</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.05198226767375856</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.05427643837618551</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.05666131310425181</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.05909384818383158</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.06152372999588408</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.06393669125684751</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.06630353026818536</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.06859917827225107</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.07080300805476587</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.07289859834210184</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.07487338161836085</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.07671845631428342</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.07842805282747471</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.07999920461279925</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.08143154989208187</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.08272679747434365</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.08388842893552478</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.08492154197087948</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.08583237175195933</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.08662805423457112</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.08731652799884058</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.08790613583965806</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.08840549784039102</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.08882325894800437</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.08916819669349584</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.08945898262242301</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.08969221771139865</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.08987602374872519</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.09001804232924399</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.09012535651169792</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>-0.09020450024814915</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1179,135 @@
       <c r="E6" t="n">
         <v>0.1902364980182623</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.2005734234683557</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2099160757260143</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2180097701693422</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2247178122805517</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2299895362741181</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2338368979876854</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.2363175489794265</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.2375219828150716</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2375638108141973</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.2364645371063448</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2344810808570572</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.2317577917835231</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.228436729759934</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.2246540972722263</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.2205376406948084</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.216205254160296</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.2118057964824871</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.207370593241792</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.2029856177469344</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.1987243263046751</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.1946485908642207</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.1908091104105006</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.1872458643450061</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.1839890867808182</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.1810597031492685</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.178470218705099</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.1762258784030261</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.1743252490164298</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.1727611643287451</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.1715218471296575</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.1705914710085945</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.1699510038067542</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.1695791592259576</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.1694528455804338</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.1695478780456655</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.1698395626619477</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.1703031069099796</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.1708598886220867</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.1715512756896889</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.1723534474024478</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.1732437597508959</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.1742010059929208</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.1752056338884779</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1325,135 @@
       <c r="E7" t="n">
         <v>-0.435842890469244</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.4288767919557758</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.4224818900412552</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.4167258269362242</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.4116515528859302</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.4072785799961907</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.4036072098577522</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.4006217485733181</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.3982944174459671</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.3965873371757947</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.3953998546319026</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.3947502060693994</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.394582811868475</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.3948421899853045</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.3954741212103352</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.3964267066008177</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.3976507453588378</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.3991310167528511</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.4007937232011782</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.4025999872782385</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.4045145739065463</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.4065057913199155</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.4085454476220106</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.4106088521234517</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.4126743575315703</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.4147235158083095</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.4167408659785879</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.4187133864241628</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.4206306303702738</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.4224844769060783</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.4242685794756094</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.4259785075439391</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.4276115030901066</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.4291659697397197</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.4306416260083267</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.4320392017153381</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.4333604568119221</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.4346074228588619</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.4358201967263269</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.4369566501293807</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.4380222084948466</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.4390220423006801</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.4399612767740407</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>-0.4408448705078972</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1471,135 @@
       <c r="E8" t="n">
         <v>-0.1935336989555552</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.1829424847107392</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.1739895314436213</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.1663971529271133</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.1599714905608735</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.154564325720525</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.1500531011429857</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.1463305224819947</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.1433002352800402</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.1408741400561752</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.1389774161223756</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.1375260697396997</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.1364563697765753</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.1357106959967433</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.1352391647268336</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.1349991082881562</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.134954352422855</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.1351211629176093</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.1354240681889469</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.1358392674086285</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.1363492148723406</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.1369392846891234</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.1375971890719719</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.1383125969057575</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.1390767159827799</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.1398819987399343</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.140721895551338</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.1415905551860561</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.1424826873247968</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.1433934438345088</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.1443182303402507</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.1452526933411497</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.1461926900577952</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.147134173400384</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.1480732547297485</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.1490061897474119</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.1499294789415783</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.1508395826341642</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.1517523248783084</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.1526394601145435</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.1534996012879245</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.1543317938883682</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.1551350420895549</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>-0.1559083489783176</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1617,135 @@
       <c r="E9" t="n">
         <v>-0.4135761313944554</v>
       </c>
+      <c r="F9" t="n">
+        <v>-0.3990933946644539</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.3856640367811303</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.3733767254148447</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.3622960365087469</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.3524583543986144</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.3438722299222681</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.3365212963284076</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.330367672082015</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.3253563199574331</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.321364957342893</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.3183849072197995</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.3163290159600778</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.315105384011007</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.3146211483667545</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.3147844924630478</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.3155061931788791</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.316696138910613</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.3182825603717888</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.320188484714654</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.3223445349947699</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.3246873680576751</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.3271597703709618</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.3297107255301873</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.3322953430517506</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.3348746987899383</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.3374156184537692</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.3398903677859725</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.3422763026355037</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.3445555107613712</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.3467143994450576</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.3487432758973144</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-0.3506359507280618</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.3523893139758276</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0.3540029246121259</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.355478635061357</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.3568202240092007</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-0.3580330616675203</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-0.3591361884605717</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0.3601222248624026</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>-0.3609993488386983</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-0.3617766717801573</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0.3624635555806626</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>-0.3630694026367806</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +1763,135 @@
       <c r="E10" t="n">
         <v>0.3914431792995678</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.3958681120399875</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4000310320716972</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.4038003101620414</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.4070832620360715</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.4098238796238169</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.4119983868959955</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.4136092640789098</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.414679221822925</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.41524559876847</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.4153354466643728</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.4150312750685015</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.414389749029118</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.4134679753605289</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.412321789367225</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.4110043636380075</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.4095652054217329</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.4080542698819007</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.4065015719579472</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.4049435775089141</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.403412153318882</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.4019343639660762</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.4005325936708806</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.3992247870826953</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.3980247169162296</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.3969423623828635</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.3959842745979336</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.3951539013297032</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.3944520272317395</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.3938771406507809</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.393425728518799</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.3930926963047623</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.3928716769524379</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.3927552549008246</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.3927353249447087</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.3928032991053979</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.3929503524538425</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.3931675092157617</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.393445352698474</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.393778593073055</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.3941582167080901</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.3945757399038838</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.3950232980446854</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.3954936501818108</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +1909,135 @@
       <c r="E11" t="n">
         <v>-0.2237545738440832</v>
       </c>
+      <c r="F11" t="n">
+        <v>-0.2180557952500705</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.2131296913377703</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.2090461233103171</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.2058124150019852</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.2033928682742586</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.2017240974782329</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.200726316193667</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.2003118742563596</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.2003909124086931</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.2008298555272998</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.2015928476674346</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.2026053943345705</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.2038006521789434</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0.205120706497595</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.206516699847644</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.2079482927668027</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.2094280259540079</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-0.2108869991753949</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.2123036358223473</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-0.21366346529618</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.214957077308172</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.2161792584547424</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.2173283010315466</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-0.2184051464763161</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.2194129382221126</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>-0.2203564642153213</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.2212415065651154</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.2220745894040724</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0.2228626184563362</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0.223612441569902</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-0.2243307614854294</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.225023942735773</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.2256977484831473</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.2263573697633967</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.2270073224386032</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.2276515948935941</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-0.2282930847001773</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-0.228953477709636</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.229611273033561</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.2302683877854771</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-0.2309262922100974</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-0.2315858539242847</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>-0.2322473653251229</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -636,6 +2055,135 @@
       <c r="E12" t="n">
         <v>-0.06659595630967764</v>
       </c>
+      <c r="F12" t="n">
+        <v>-0.05918527836522657</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.05312583892868129</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.04848393370757715</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.0452762001444349</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.04347103226394011</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.04299508675542845</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.0437424025222178</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.04558380049577407</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.04837573019064019</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.05199670069998018</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.05624672811114144</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.06097870487453217</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.06605380780961095</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.07134389482239835</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.07673316480995977</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-0.08211918542530364</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.08742253519646855</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-0.09257184937005891</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.09750267031466811</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-0.1021629311138672</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.1065124832163735</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.1105222395995754</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.1141731720689669</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0.1174553052891718</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-0.1203665472796819</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-0.1229116300059724</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-0.1251011166923399</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.126950295369117</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-0.1284782534030404</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.1297070657776064</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.1306608854705073</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.1313652413231094</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-0.1318464643954005</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-0.1321310177267317</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-0.1322450532681603</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-0.13221401478081</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-0.1320622577817603</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-0.1318242953821199</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-0.131503820085058</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-0.1311222027972651</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-0.1306987841669373</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-0.130250810388498</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>-0.1297934728506119</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -653,6 +2201,135 @@
       <c r="E13" t="n">
         <v>-0.01653553783980256</v>
       </c>
+      <c r="F13" t="n">
+        <v>-0.01575082575569919</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.0159203048730274</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.01688950717753816</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.01851962148930692</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.02068557618506875</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.0232740273743555</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.0261826146038314</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.0293190195794438</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.03260104367503887</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0.03594701475574928</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.0393004519456864</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.04260680539944581</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.045820937098276</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.04890585323949338</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.05183197778068679</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-0.05457670790269075</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-0.05714184728563865</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-0.05949939421835277</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-0.06164444189658735</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-0.06357538183662774</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-0.0652943708811195</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-0.06680682793922822</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-0.06812083506780928</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-0.06924680200476412</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-0.07019678636180601</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-0.07098405876194651</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-0.07162288505639199</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-0.07212795517466498</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-0.07251407704465138</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>-0.07279607863164253</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-0.07298836452653433</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>-0.07310473565046291</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-0.07315839653462829</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-0.07316163669128405</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-0.07312580458113552</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>-0.07306122418317224</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>-0.07297722873962532</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>-0.0728991907278852</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>-0.0728174763606384</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>-0.07273805570010201</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>-0.07266586192352101</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>-0.07260490854800145</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>-0.07255838426699243</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -670,6 +2347,135 @@
       <c r="E14" t="n">
         <v>0.05326042268245165</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.07022083950949054</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.08544909570729853</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.09850392821657644</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1091199200407315</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.1171774270360936</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.1226747896298925</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.1257029116156281</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.1264225004144201</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.1250449144003653</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.1217892778101001</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.1169500910886146</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.110805884033635</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.1036326693053148</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.09569563126779593</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.08724348116292437</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.0785045720401759</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.06968483881873963</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.06093971569393057</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.05242939053155749</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.04428809995671947</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.03662595470899715</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.02952994480144571</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.02306523026126413</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.01727681295575585</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.01219128752875279</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.007818766310328136</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.004154922873930496</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.001182971104375756</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>-0.001124371479117481</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>-0.002802959350783278</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>-0.003895417184266406</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>-0.004449467594760628</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>-0.004516384547683591</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>-0.004149572672674268</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>-0.003403335440575889</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>-0.002331881233068746</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>-0.0009880938446695242</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.0005527391865883594</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.002277302422763083</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.004138892938967985</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.006093876280267613</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.008102391706226376</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0.01012856430533118</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -687,6 +2493,135 @@
       <c r="E15" t="n">
         <v>-0.01527114096813793</v>
       </c>
+      <c r="F15" t="n">
+        <v>-0.001714706920468892</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.008914446870754267</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0166973879726961</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.02170011579646537</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.02401600058932397</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.02378261404760612</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.02118407490015684</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.01644468148547013</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.009820403422239804</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.001550527217199671</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0.008024181538440242</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.01861020877879864</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-0.02992195852266508</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-0.04168926819019821</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-0.05366199028507107</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-0.0656136406575851</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-0.07736658987890968</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-0.088747187786437</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-0.09960484085529334</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-0.1098166912223419</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-0.1192853498618502</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-0.1279377444143029</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-0.1357235724611124</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-0.1426137044136723</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>-0.1485978883696045</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>-0.1536826659139769</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>-0.1578893367779745</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-0.1612515124588926</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-0.1638130231363704</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>-0.165625992303924</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>-0.1667486959702515</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-0.1672438098005961</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>-0.1671768669155967</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-0.1666146308544181</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-0.1656238482015549</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>-0.1642702118125717</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>-0.1626170657671865</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>-0.1607547760916536</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>-0.1586967079327172</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>-0.1564982891146232</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>-0.1542105432603552</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>-0.1518794761159703</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>-0.1495460082696863</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -704,6 +2639,135 @@
       <c r="E16" t="n">
         <v>0.3574714729078849</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.3829931681165455</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.4039410903401905</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4206679739139784</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.4334348499431721</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.4424787370860413</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.4480469256091422</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.4504106135049281</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.4498673527843798</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.4467365441427835</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.4412708038141343</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.4339092613273193</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.4249970637174105</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.4148712275223672</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.4038524604280242</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.3922407577294447</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.380311430084106</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.3683521678996993</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.3565149711346023</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.3449956942902235</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.3339588225260418</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.3235407484459522</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.3138507262551683</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.3049722631478181</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.2969643792234998</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.2898640248379155</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.2836881110522612</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.278435400885285</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.2740892273841801</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.2706196755345687</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.267985515585747</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.2661366967329287</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.2650162745695431</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.2645620563272228</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.2647085988833356</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.2653886371423052</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.2665344651012305</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.268079099145968</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.2699773912838262</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.2721534759073994</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.2745469482404775</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.2771007821918387</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.2797625189942411</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0.2824844907984715</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -721,6 +2785,135 @@
       <c r="E17" t="n">
         <v>0.5339486203744919</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.5442478355381232</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.5494319868459716</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5504669202562449</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5480758140989126</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.542846079628846</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.5352879067540975</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.5258633076014945</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.514999377888106</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.5030919298947235</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.4905279443768237</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.4776589200258115</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.4647791535501995</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.452146837869549</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.4399832489199505</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.4284737420707313</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.4177681558502649</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.4078732448184221</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.3989741436437778</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.3911310739336893</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.3843777894748047</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.3787245090978683</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.3741605628901554</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.3706573186275319</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.3681703237654353</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.3666428165474652</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.36600818097557</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.3661918502412417</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.3671142969103607</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.3686929441681358</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.3708435445892078</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.3734824133435778</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.3765276912814439</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.3799001547522047</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.3835246775507464</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.3873308102996039</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.3912534279897057</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.3952329837236802</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.3992379323938291</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.4032058502160147</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.4070926351516653</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.4108606603155555</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.4144787843138841</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0.4179218864086763</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -738,6 +2931,135 @@
       <c r="E18" t="n">
         <v>-0.09018280098618758</v>
       </c>
+      <c r="F18" t="n">
+        <v>-0.09608325813354618</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.1022637050317909</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.1086469429759385</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.1151958861312591</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.121884559888715</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.1286821475097009</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.1355479641979525</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.1424308234122138</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.1492722148503265</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.1559078068040435</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.1623693967288359</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.168596206759296</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.1745306360720598</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.180120359114087</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.1853194985874512</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.1900901611978045</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-0.1944603895872582</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-0.1983540831351032</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-0.2017582457415162</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-0.2046676891289136</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-0.2070848229543675</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-0.2090190975335816</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-0.2104861315041243</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-0.211507455039972</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>-0.2121090466656222</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>-0.2123205350121801</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>-0.2121748990455088</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-0.2117070121163119</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>-0.2109529459687026</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>-0.2099497813581029</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>-0.2087343434135692</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-0.2073427083703022</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>-0.205810181710731</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>-0.2041703030161211</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>-0.2024547060386218</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>-0.2006926380515316</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>-0.198911400031817</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>-0.1971449311925028</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>-0.1954052370851619</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>-0.1937110832477838</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>-0.1920788652742111</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>-0.1905222871676821</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>-0.1890525852271726</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -755,6 +3077,135 @@
       <c r="E19" t="n">
         <v>0.4325462825497157</v>
       </c>
+      <c r="F19" t="n">
+        <v>0.4292077044994602</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4247179750734427</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.4193969408841971</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.4134057657145355</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.4068309841579602</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.3997336838058995</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.3921729968472202</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.3842166784492757</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.3759422929825329</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.3673570899021678</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.3586653898052367</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.3499611655779616</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.34133819241534</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.3328868156897231</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.3246921583670068</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.3168311541065565</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.30940841790159</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.3024249512538709</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.2959284459761143</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.2899566639854559</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.2845371144008584</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.2796872267761669</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.2754151252672464</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.2717192841090441</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.2685905260331045</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.2660127968802083</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.2639631399723854</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.2624138423885772</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.2613332524111441</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.2606857997688459</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.2604339683713975</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.2605389728821854</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.2609607021554002</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.2616593628371903</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.2625957271242311</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.2637319513747508</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.2650311085315992</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.2664330818432388</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.2679344695696321</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.2695050954687948</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.2711171379869629</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.2727457545653116</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0.2743688614506533</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -772,6 +3223,135 @@
       <c r="E20" t="n">
         <v>0.2258366187173877</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.2546133282058002</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.2781732617271527</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.2967204945907382</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.3105163062459378</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.31987699039484</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.3251640769551699</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.326774166264959</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.3251274586578163</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.320658071784078</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.3138162678843551</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.3050158122302905</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.2946825046759083</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.2832170599913363</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.2709897880771896</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.2583369600268206</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.2455590213347487</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.2328576657729202</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.2205023811456165</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.2086867038071041</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.1975685736530733</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.1872728811911624</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.1778934540199306</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.1694952045588073</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.1621171442790567</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.1557746105758697</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.1504620927036838</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.1461565519798262</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.1428196600572634</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.1404005213733932</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.1388387267529962</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.1380661911788862</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.1380094072548703</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.1385919277651395</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.1397356213558925</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.1413624431633168</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.1433955220283363</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.145761172300878</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.1483728782718066</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.1511942179612167</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.1541609237785121</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.157214369802044</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.1603016423965068</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0.1633758192034606</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -789,6 +3369,135 @@
       <c r="E21" t="n">
         <v>0.5990870125649104</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.6128614414526049</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.6237618366783204</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.6319088141753156</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6374197104346807</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.6404316613796397</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.6411107985980899</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.6396518679098349</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.6362737411846177</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.6312118794722137</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.624529812816927</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.6166946464723686</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.6079543389878663</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.5985455220301409</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.5886912043753803</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.5785980391583371</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.5684538254167127</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.5584937751716879</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.5487720678550463</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.5394148957043546</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.5305304468140416</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.5222069631271274</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.5145133630392456</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.5075004085285377</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.5012017042838466</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.4956355325840005</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.490806392734518</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.4867063166326185</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.4833168797072768</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.4806107781561331</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.4785530973336143</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.4771031586876486</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.4762158785878238</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.4758427916552797</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.4759335553965356</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.4764368963963682</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.4773016843922839</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.4784773254250678</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.4799379965996429</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.4816178678238253</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.4834710732345571</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.4854552780655829</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.4875315981968673</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0.489664658405792</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -806,6 +3515,135 @@
       <c r="E22" t="n">
         <v>0.3437988429677436</v>
       </c>
+      <c r="F22" t="n">
+        <v>0.3591082727588841</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3705311929214372</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.378298244223006</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.3826697203139161</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.3839369494211787</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3824176610659334</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.3784483120544999</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.3723761948640951</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.364550422963916</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.3552183499892599</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.3448413103774322</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.3337332727935344</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.3221850572843171</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.3104605053587512</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.298794636977511</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.2873926940500617</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.2764303428292231</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.2660254813358747</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.2563018778688725</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.2473551448081327</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.2392556518777046</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.2320504596641345</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.2257653940527877</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.2204072369796764</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.2159660432204366</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.2124174121115238</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.2097247367331813</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.2078414196927549</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.206712931298645</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.2062787512565304</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.2064741897075491</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.2072320053055101</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.2084838689042689</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.2101616710064211</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.2121986281085948</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.2145303265996215</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.2170951850721884</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.2198268024349757</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.2226879393354652</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.2256282136350088</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.2286017663957748</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.2315677177568268</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0.234490215811122</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -823,6 +3661,135 @@
       <c r="E23" t="n">
         <v>-0.07788234890918529</v>
       </c>
+      <c r="F23" t="n">
+        <v>-0.06882115525278369</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.06240274495466332</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.05864096281535693</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.0574542664377041</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.05868440465094044</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.06211495872716846</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.06748875452602983</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.07452347141319954</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.08292460697536397</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.0924381831938297</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.1027106509240692</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.113467136306157</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-0.1244551115029318</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-0.13544723983476</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-0.1462434217811151</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-0.1566717172559666</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-0.1666384508318416</v>
+      </c>
+      <c r="W23" t="n">
+        <v>-0.1759953173188583</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-0.1846488022784749</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-0.1925291576453425</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>-0.1995893160517163</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-0.2058029315216983</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>-0.2111622246204288</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>-0.2156757103515793</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>-0.2193659276753367</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>-0.222267211542139</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>-0.2244235212264833</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-0.2258863757560268</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>-0.2267129486620031</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>-0.2269643125610343</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>-0.2267038196378136</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>-0.2259956911059454</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>-0.2249037914902727</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>-0.2234905240701405</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>-0.2218159486555883</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>-0.2199371243672726</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>-0.2179072929976072</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>-0.2157987698845599</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>-0.2136236511434568</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>-0.2114241507068378</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>-0.2092375541136878</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>-0.207096309974348</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>-0.205028122080768</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -840,6 +3807,135 @@
       <c r="E24" t="n">
         <v>3.369724814838415</v>
       </c>
+      <c r="F24" t="n">
+        <v>3.226959757663223</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.080104851909581</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.929129853136128</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.775522129888957</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.621428484599345</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.469151196989982</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.320873209698679</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.178519205475792</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.043690861615275</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.916883631403522</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.800257241294828</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.694367655204164</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.599491995102502</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.515677661829746</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.442772965712505</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.380464900552543</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.328088917602006</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.285223562971578</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.251282994272374</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.225626575876683</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.207564274849625</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.196376015767637</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.191327654768787</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.191690398800297</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1.196747102010013</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.205803456336943</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.218200380705336</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1.233314880841881</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.250565985628552</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1.269421836686417</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.289397090483031</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.310055042960634</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.331010772893511</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.35192655697044</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.372512078649107</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.392521954342531</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.411754610999726</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1.430465536519567</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>1.448058524838599</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1.464440634106561</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>1.479554196738189</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>1.493368072437004</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>1.505875482198982</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -857,6 +3953,135 @@
       <c r="E25" t="n">
         <v>0.3958235717429832</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.3772059408071827</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3602223812994544</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.344941614253213</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3313729229977265</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.3194858354730605</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3092263538968324</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3005241842539966</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.2932989532254677</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.2874603845353037</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.2829217124315273</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.2796488580404958</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.277465992202129</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.2762616641452286</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.2759304801411629</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.2763707510920608</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.277484133005991</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.2792179860026062</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.2813576756377263</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.2839074864624799</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.2867937198357777</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.2899430909740146</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.293287883128082</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.2967666330183323</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.3003232870734561</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.3039082235199235</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.3074779417102925</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.3109940167161955</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.3144239863906541</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.3177408579996946</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.3209219655625126</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.3239497195821635</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.3268110175984047</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.3294961033126095</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.3319991935657449</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.3343176548676199</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.3364520559614776</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.3384043391586012</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.3402210979678564</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.341836460249589</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.3432815985119788</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.3445683690579067</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.3457082601674917</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0.346713037025909</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -874,6 +4099,135 @@
       <c r="E26" t="n">
         <v>0.3507846461929826</v>
       </c>
+      <c r="F26" t="n">
+        <v>0.3277995476079492</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.3039729327560448</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2802838771646743</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2573233754630924</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.2354526518276226</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.2148998804765858</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.1958120586522427</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.1782843661505124</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.162372740326949</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.1479919315201688</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.1353938547481372</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.124467688555315</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.1151614013269821</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.1074118697968745</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.1011438604674762</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.09627011761724345</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.09269979889735197</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.09021523228947714</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.08881635525710782</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.0883998834087458</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.08885549493128997</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.09007327212721437</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.09194595955839872</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.09436845847092026</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.09724110289997935</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.1004701533573279</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.1039669073875917</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.1076503798964675</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.1114472394440549</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.1152905418568278</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.1191217342226104</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.122890162209898</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.1265515952139101</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.1300696312332762</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.1334146141239068</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.1365636733465578</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.1394987581072145</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.1422108287709719</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.1446669790388841</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.1468888199408703</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.1488779214333635</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.1506385097959431</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0.1521777862102158</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -891,6 +4245,135 @@
       <c r="E27" t="n">
         <v>0.1801442341511623</v>
       </c>
+      <c r="F27" t="n">
+        <v>0.1635317882518104</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1473871028693653</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1316927838299883</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1164954146656097</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.1018761257683802</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.08793166177414158</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.07476082293648346</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.06245641820772681</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.05109810837117875</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.04064872565355652</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.03139035068522335</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.02324463194929601</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.01621353332951991</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.01028801712023707</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.005443808910004462</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.001642438810892065</v>
+      </c>
+      <c r="V27" t="n">
+        <v>-0.001118252641188526</v>
+      </c>
+      <c r="W27" t="n">
+        <v>-0.003095950011421995</v>
+      </c>
+      <c r="X27" t="n">
+        <v>-0.004217219327763234</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>-0.004545454731321792</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>-0.004156874472732219</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>-0.003130949668391038</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>-0.001548232297699945</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.0005108963944258291</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.002967923711857209</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.00574704895042423</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.008775971596869749</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.01198703823202088</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.01531757284656964</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.01871018497345374</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.02211340294136359</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.02548159106624516</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0.02877488170151221</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.03195940081880788</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.03500687332929112</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.03789453827223859</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0.04060426086539843</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.04312034486403289</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.04540955823871871</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0.04749884102653325</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0.04938799003099419</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0.05107825671034459</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0.05257361397871797</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -908,6 +4391,135 @@
       <c r="E28" t="n">
         <v>0.9065462369199336</v>
       </c>
+      <c r="F28" t="n">
+        <v>0.8747974623800459</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.8525687488836526</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.8364635413481067</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.8244791731268972</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.8154310878993807</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8086018959097804</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.8035392627302793</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.7999399101934794</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.7975858933981852</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.7963393265997784</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.7960541832258291</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.7965571980159318</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.7977401627715734</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.799509112219872</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.8017764323851626</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.804463092762172</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.8076069016812839</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.8109296166239991</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.8144557581924291</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.8181427754774055</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.821946360422365</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.8258255563506935</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.829742466371441</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.8336659137549608</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.8375673885838476</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.8414213467906279</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.8452082925575775</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.8489107320084378</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.8525134213229895</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.8560060365579734</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.859379566343892</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.8626265813768722</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.8657434792228387</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.8687274480589913</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.8715773164218507</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.874293077679084</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0.8768765176593069</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.879325055323309</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0.8816252496506738</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.8838027801657821</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0.8858667623062741</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0.8878238883768892</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0.8896804055985641</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -925,6 +4537,135 @@
       <c r="E29" t="n">
         <v>2.933155939410928</v>
       </c>
+      <c r="F29" t="n">
+        <v>2.781672521433181</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.635111497881701</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.491971556185371</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.352382462413173</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.21726625514238</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.087838761905987</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.965334791815744</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.850862435491906</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.745334244887405</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.649954905782814</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.564859309815357</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.490237019407225</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.426089574169685</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.372252035286011</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.328411920048371</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.294138237577744</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.268285658389189</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.250817786652418</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.241123762818801</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.238536262699538</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.24235406240816</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1.251859128108091</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.266329520768285</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.285057085814978</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1.307351173676914</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.332548313708447</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.360024102394993</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1.389192391570831</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.419510507583926</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1.450486525085501</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.481675483558335</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.512681194642086</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1.543159882127837</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1.57281465534776</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.601395810755818</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.628697615600248</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.654559027763371</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>1.67897168256969</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1.701714874275847</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1.722737793114006</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>1.742018809909676</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1.759561087069436</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>1.775390848971196</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -942,6 +4683,135 @@
       <c r="E30" t="n">
         <v>0.8416233254073726</v>
       </c>
+      <c r="F30" t="n">
+        <v>0.8075101381442098</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.7755394081656665</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.7462199727977414</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.7197987895175075</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.6963551976237885</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.6758636809901063</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.658232117724652</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.6433268206126982</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.6309864006103248</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.6210773789420492</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6134747493662638</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.6078863446086454</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.6041126721513278</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.6019638128842306</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.6012567843708351</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.6018154026483905</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.6034998152979101</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.6060052762614808</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.6093091334544404</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.6132784906781681</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.6177832990105335</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.6227036192864726</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.6279303924778153</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.6333642556824338</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.638916763916439</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.6445097955196005</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.6500742509143295</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.6555509769292417</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0.6608899601550711</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.6660489634751189</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.6709941468195637</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.6756991559119623</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.6801438034770432</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.6843144405126765</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0.6882028631268367</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.691805974203246</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0.6951242302953291</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.6981895790879538</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0.7009486596172235</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.7034424430045524</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0.7056855765417285</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.7076930126682095</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0.7094808961433612</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -959,6 +4829,135 @@
       <c r="E31" t="n">
         <v>-0.3415742585759267</v>
       </c>
+      <c r="F31" t="n">
+        <v>-0.366189091264322</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.3873864881479554</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.4057714427863083</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.421792813986563</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.4357847252998968</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.4479950566393918</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.4586094943362412</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.4677698124521614</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.4755887261131269</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.4821372423397725</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.4874186583606538</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.4916073421496782</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.4947811840762662</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.4970115347416427</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-0.4983700272024453</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.4989301796798474</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.4987629376098622</v>
+      </c>
+      <c r="W31" t="n">
+        <v>-0.4980807160576646</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-0.4968292404104757</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-0.4950773762030884</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>-0.4929009554046084</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>-0.4903745871694235</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>-0.4875702469847443</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>-0.484557006164521</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>-0.4813996748759101</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>-0.4781584959986376</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>-0.4748891684900385</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>-0.4716417735001499</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>-0.4684608209281123</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>-0.4653856152493389</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>-0.4624495086401983</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>-0.459680244505564</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>-0.4571005815006514</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>-0.4547278274536348</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>-0.4525745094812588</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>-0.4506486048262268</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>-0.4489543751848556</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>-0.4475310511156774</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>-0.4463605076545315</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>-0.4454061003325939</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>-0.4446582083030264</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>-0.4441068097986599</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>-0.4437403714829422</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -976,6 +4975,135 @@
       <c r="E32" t="n">
         <v>0.7014154835558736</v>
       </c>
+      <c r="F32" t="n">
+        <v>0.6820582385178577</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.6634780181443491</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.6457878615933121</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.6291016859071276</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.6135222585016367</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5991339737868909</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.5860001151478992</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.5741620949075846</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.5636401044303032</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.5543716892980368</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.5464948871727575</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.5399062297854158</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.5345516113205202</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.5303688423158559</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.5272861555359839</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.5252240849238177</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.5241153505912991</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.5237574473876253</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.5241523919685394</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.5252169202544867</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.5268630709985149</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.5290045197776907</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.5315579630143705</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.5344441044392274</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.5375884310720915</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.5409216323974032</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.5443801796380133</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.5479065847206237</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.5514494105511356</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.5549634861449106</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.5584097624971246</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.5617550390957309</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0.5649719247666448</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.5680384274860648</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0.5709375765145683</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.5736569843011555</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0.5761885768067028</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.5785072241126583</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.5806192037091661</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0.5825459284745838</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0.584291958095016</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0.5858630585855548</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0.5872669469903417</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -993,6 +5121,135 @@
       <c r="E33" t="n">
         <v>0.8222477569244202</v>
       </c>
+      <c r="F33" t="n">
+        <v>0.8136035274155882</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.8044757823517701</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.7953068542179461</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.7864177585997399</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.7780387909374035</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.7703304668396759</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.7633997412446577</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7573120971100042</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.7521008676358378</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.7477821257923399</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.7444000871113183</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.7418637274286035</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.740130967669184</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.7391535126515199</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.7388759008300191</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.7392374045138254</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.7401712253535704</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.7415333723140547</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.7433448398176012</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.7455450619243994</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.7480700864963654</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.7508582549533257</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.7538511166110677</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.7569939923262229</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.7602364042292266</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.763532208769427</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.7668399332584166</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.7701228249375625</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0.7733487243931352</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.7764902057521411</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.779524330351383</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.7824323507446456</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0.7851997220816961</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0.7878156621977697</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0.7902728484908083</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0.7925669978821143</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0.7946968360329764</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0.7966557498604687</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0.798439723204363</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0.8000728324189461</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0.8015619062288192</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0.8029141231534084</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0.8041378222290712</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1010,6 +5267,135 @@
       <c r="E34" t="n">
         <v>-0.7834256278207068</v>
       </c>
+      <c r="F34" t="n">
+        <v>-0.7936629831891976</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.8039810792663395</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.814359690313908</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.8246627343082017</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.8347116981686629</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.8443281482564017</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.8533550146061485</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.8616654121762873</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.8691654277876673</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0.875724511098996</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.8813138758848013</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-0.8859985340638974</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-0.8897975834283051</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-0.892744401554729</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-0.8948873241100253</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-0.8962860127759672</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-0.8970471607754531</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-0.8972943292706803</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-0.8970058400177615</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-0.896252832045173</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>-0.8951120713712221</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>-0.8936588441463067</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>-0.8919654507678492</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>-0.8900996072680377</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>-0.8881241840070815</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>-0.8860967208501178</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>-0.8840684519618256</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>-0.882084648545207</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>-0.8801846221528883</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>-0.878401208814697</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>-0.8767614730871764</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>-0.8752870074413894</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>-0.8739937219477827</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>-0.8728927204891568</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>-0.8719906078048775</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>-0.8712900476652232</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>-0.8707899370646115</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>-0.8705095481722364</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>-0.8704382972927617</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>-0.8705448405168654</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>-0.8708172071732347</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>-0.8712433943279602</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>-0.8718103534745941</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1027,6 +5413,135 @@
       <c r="E35" t="n">
         <v>0.8404983887785169</v>
       </c>
+      <c r="F35" t="n">
+        <v>0.8337269617674661</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.827719529760211</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.8225843251956243</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.8183755571572592</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.8151059148714581</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.8127567424848726</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.8112855705229118</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8106324908885761</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.8107246321581953</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.811444332499598</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.8127537369490799</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.8145605407799072</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.8167747192273905</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.819310069111277</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.8220857721874916</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.8250272786038143</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.828090297228456</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.831193262073249</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.8342842096871081</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.8373181191363407</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.8402571816535674</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.8430705776848849</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.8457341777957036</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.8482299020656542</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.8505454282489318</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.8526736203208932</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.8546117624501162</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.8563611945546492</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.8579267099054312</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.8593158119994793</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.8605383835648738</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.8616061551967282</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.8625320726457566</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.8633300551381272</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0.8640145410386344</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.8646002536903853</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.8651015710326414</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.8655465418555321</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.8659304427795508</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.8662668780798353</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0.8665683768227974</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0.8668465014808321</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0.8671117320885132</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1044,6 +5559,135 @@
       <c r="E36" t="n">
         <v>0.7779421965100982</v>
       </c>
+      <c r="F36" t="n">
+        <v>0.7712582891951767</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.7653183037901263</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.760333517130189</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.7564303651632814</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.7536673346912455</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.7520490630041141</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.7515383722182962</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7520665603181552</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.7535419505262242</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.7558662358881933</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.7589143373281747</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.7625618692166746</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.7666856055459833</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.7711665280067184</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.7758923833885257</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.7807594798921736</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.7856701828368676</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.7905554699371847</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.7953422550945558</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.7999679751967665</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.8043807539431816</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.8085390770810555</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.8124112856999689</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.8159748648455658</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.8192157340222945</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.8221274137622365</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.8247101224260952</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.8269699345677491</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.8289179030256287</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0.8305691850705913</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0.8319422534209157</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.8330581286866342</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0.8339396589514048</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0.8346108827785654</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0.8350964454747468</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.8354211182393164</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0.8356092580331782</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.8356931659946315</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.8356825161963929</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0.8355991911505208</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0.835463571287097</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0.8352944100194292</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0.8351087174530113</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1061,6 +5705,135 @@
       <c r="E37" t="n">
         <v>0.7215867935898636</v>
       </c>
+      <c r="F37" t="n">
+        <v>0.7159500570155529</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.7108982594020332</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.7065756410397968</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.7031114216589864</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.7006029262368985</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.6991092866310188</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.6986509330097568</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.6992131256714517</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.7007504654551416</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.7032524273751758</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.7065668140893706</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.7105858357160647</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.7151949972574282</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.720277294020892</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.7257167408691544</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.731401384725331</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.7371818494277832</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.743021143605772</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.7488307403899027</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.7545314360351228</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.7600541147705133</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.7653400599586654</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.7703409431660179</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.7750186160542489</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.7793446014071302</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.7832995116161624</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.7868723560983961</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.7900597084947845</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.7928648794856523</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.7952970588740662</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0.7973704320206685</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.7991033390546227</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.8005174509779677</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.801636997651505</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0.8024880442698953</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.8030978222827762</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0.8034941276746921</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.8037346885568069</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.8038082835982779</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.8037428734948168</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0.803565053275785</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0.8032998816949874</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0.8029706869884022</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1078,6 +5851,135 @@
       <c r="E38" t="n">
         <v>0.6671051025656546</v>
       </c>
+      <c r="F38" t="n">
+        <v>0.6623420092237227</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.6574696268179504</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.6526179358763781</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.647914121176881</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.6434739627887721</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.6393963653064824</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.635761131903432</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.6326283169187419</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.6300392580050657</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.6280565721057859</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.6266564604040025</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.6258304129548679</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.6255578289285147</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.6258083744410274</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.6265439371669024</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.6277207132229926</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.6292297783471289</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.6310865763034091</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.6332409844479916</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.635642927090731</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.6382432304256325</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.6409944967846318</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.6438517692241145</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.6467732744388364</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.6497206481830686</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.6526592418027397</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.6555584798628608</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.6583917329342973</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.6611363229519428</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.663773608745127</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.6662886408460144</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.6686699820162425</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0.6709096270606865</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.6730025546563647</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0.6749465041454119</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.6767416056592456</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0.6783903000011868</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.6798779770474758</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.6812324074634418</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.6824597117767314</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0.6835673051917057</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0.6845634500996554</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>0.685457047822975</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1095,6 +5997,135 @@
       <c r="E39" t="n">
         <v>0.5984000628878293</v>
       </c>
+      <c r="F39" t="n">
+        <v>0.5968567124195174</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.5956368950953284</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.5947768547179104</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.5943137118927935</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5942738696918274</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.5946681299226564</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.5954909575169853</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.5967220224857365</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.598328678340008</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.6002778651892006</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.6025086042822033</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.6049671856603921</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.6075984882343889</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.6103481909793853</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.613164245049967</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.6159981535213057</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.6187992327050458</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.6215423015866467</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.6241925653512732</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.6267208057643515</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.6291030933063316</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.6313206989980358</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.6333598723303066</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.6352116380515661</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.6368713189225059</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.6383381400070538</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.639614866178989</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.6407072359863862</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.6416235190875489</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.6423741363365818</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.6429711304858774</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.6434277727556439</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.6437582419305632</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0.6439771960324669</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0.6440994882203893</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0.644139873627955</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0.6441128105570694</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.6440397970348857</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.6439230660173856</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0.6437754419493051</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0.6436088575075483</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0.6434341639810834</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0.6432611060757526</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1112,6 +6143,135 @@
       <c r="E40" t="n">
         <v>0.7951372853816558</v>
       </c>
+      <c r="F40" t="n">
+        <v>0.7933822248914678</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.7909982110738856</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.7883393879738779</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.7856755917343364</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.7832082611722386</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.7810824698812067</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.7793967572096057</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7782113425070046</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.7775551461656331</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.777395738291376</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.777763798059784</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.7786245265425916</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.7799317178624505</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.7816315715873577</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.7836657956378247</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.7859741109638024</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.7884795427129093</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.7911474700002469</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.7939223564018626</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.7967527824408792</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.7995918794395522</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.8023978183031307</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.8051341209459503</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.8077697593774377</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.8102791687278569</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.8126420968729982</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.8148433481431927</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.8168724812796537</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.8187234259671867</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.8203940615494788</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.8218857745024167</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.8232029987934102</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.8243527662319914</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0.8253442464580397</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0.8261883192904169</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0.8268970953260163</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0.8274837662627568</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.8279736746829262</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0.8283666549052759</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.8286763944877258</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.8289165643363526</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0.8291004753828354</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0.8292408820307415</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1129,6 +6289,135 @@
       <c r="E41" t="n">
         <v>0.5509062903049265</v>
       </c>
+      <c r="F41" t="n">
+        <v>0.5488192491863262</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.5473918847580295</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.5465462441097912</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.5462206737218283</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5463642772996636</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.5469333262314758</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.5478880240292221</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.5491905488074962</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.5508033412169814</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.55272001759441</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.5548709544055029</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.5572157996192914</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.5597151473970339</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.5623310614387791</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.5650274895470899</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.5677705047749179</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.5705051618703857</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.5732326261758912</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.5759265543465714</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.5785639198891767</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.5811247469531291</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.583592127434706</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.5859522299156764</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.5881940857765966</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.590309615435897</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.5922934319275099</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.5941424950968759</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.5958560662742634</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0.5974354400849846</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0.5988835461211774</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.6002048882001623</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.6014052680379093</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0.6024913961864221</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0.6034708521592943</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0.6043517975892146</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.6051428843149197</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0.6058527384549632</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.6064969538919178</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.6070751037118786</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.6075962550561885</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0.6080690224690761</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0.6085015861433537</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0.6089015871872127</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1146,6 +6435,135 @@
       <c r="E42" t="n">
         <v>0.6776446256593835</v>
       </c>
+      <c r="F42" t="n">
+        <v>0.6642018399528953</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.6516021451233577</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.6400997934310662</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.6298665281112862</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.6210094685618237</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.6135839762150539</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.6076026854128186</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.6030427355801755</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.5998516916954613</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.59798465916661</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.5973317376530909</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.5977772915216716</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.5991971869064532</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.6014632134098674</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.6044465812030634</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.6080205808734305</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.612007709407322</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.6163590087303321</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.6209661851868948</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.6257303096877083</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.6305617541156018</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.6353806608250415</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.640117255981138</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.6447116763593456</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.6491140132204121</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.6532839349778606</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.6571900025167524</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0.6608092996071184</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0.6641267234441661</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0.6671340645324816</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.6698294573538587</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.6722165675695646</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0.6743036458369082</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0.676102968065578</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0.6776300308553556</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0.678902914699178</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0.6799414839581918</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.6807648699395317</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0.6813950708858322</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0.6818541780300236</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0.682164458704931</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0.682347884970355</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0.6824257319831859</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1163,6 +6581,135 @@
       <c r="E43" t="n">
         <v>0.6821022958328645</v>
       </c>
+      <c r="F43" t="n">
+        <v>0.679210333263407</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.6758559012676347</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.6723363028086313</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.6688803550037763</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.6656626344487436</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.6628131343116772</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.6604245252478947</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.658557949853778</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.6572479602350385</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.65654641313923</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6564130108694316</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.6568227908235839</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.657739449824813</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.6591180439746639</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.6609075943278083</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.6630533565042521</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.6654403473146941</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.668079183726176</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.6709150120878056</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.6738947082151397</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.6769680919208513</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.6800886347714726</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.683213964938118</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.6863062177949304</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.6893322313944932</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.6922636059556803</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.6950766803647883</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.6977523878386217</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0.7002760403889582</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.7026370872150132</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0.7048287813077997</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.7068478288834081</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.7086940556450629</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0.7103700029725792</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0.7118805582638219</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.7132325508461197</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0.7144344997807561</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.7154945841098843</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.7164249271160718</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0.717236518629377</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0.7179408584000265</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0.7185497192813313</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0.7190749173584134</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1180,6 +6727,135 @@
       <c r="E44" t="n">
         <v>0.6942487319429653</v>
       </c>
+      <c r="F44" t="n">
+        <v>0.6893588232959891</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.6854822348268643</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.6826570164586244</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.6808666262938424</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.680059154846598</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.6801603984847746</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.6810824396086663</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.6827292931662087</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.6850012467117965</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.6878313922218627</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.6910807322341531</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.6946528221027521</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.6984573777882929</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.7024110823171636</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.7064383823694939</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.7104717301649702</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.7144423559805344</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.7183184551963525</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.7220557693830996</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.7256177401005</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.7289752739809929</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.7321063037784705</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.7349953325951986</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.7376326974927676</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.7400141871952227</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.7421404097057736</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.7440160095773547</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.7456492639822824</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0.7470514657767058</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.7482362025532896</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.7492190071778063</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.7500168332373781</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.7506474615740847</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0.7511292469474546</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.7514806883959294</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.7517200575377774</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0.7518652771501089</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.7519472403811536</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0.7519651748694018</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.7519347719402198</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0.7518705222916721</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.7517857335241397</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0.7516924211123507</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1197,6 +6873,135 @@
       <c r="E45" t="n">
         <v>0.690823979023661</v>
       </c>
+      <c r="F45" t="n">
+        <v>0.6831376170427724</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.6766882143918397</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.6716511315675397</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.6681195558731688</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.6661172824350724</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.6656113429054402</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.6665235225743997</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.668741016218236</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.6721256673026155</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.6765555676886679</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.6818269397434832</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.687768308865788</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.6942111476969454</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.7009944521508263</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.7079679254718882</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.7149941817930221</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.7219385691443495</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.728723802866064</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.7352551612116481</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.7414540894645167</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.7472571611810012</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.7526154619524151</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.7574938025863645</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.7618696359295665</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.7657320080425647</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.7690803415513179</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.77192308128125</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.7742765027667587</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.7761634491200525</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0.7776120262826143</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0.7786545258102358</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.7793263322352079</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0.7796648450918672</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0.7797086477462929</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0.77949666741742</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.7790674872036784</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0.7784586555939474</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.7777248424280383</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.7768742124477147</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0.7759395696093999</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0.7749513543253361</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0.7739373193719233</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>0.7729223731198023</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1214,6 +7019,135 @@
       <c r="E46" t="n">
         <v>-1.279322509048641</v>
       </c>
+      <c r="F46" t="n">
+        <v>-1.282153683022102</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1.286295846336905</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-1.291408508493739</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-1.297200447515992</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-1.303423755062179</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-1.309870112750459</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-1.31636747193092</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-1.322777253636159</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1.328990887198101</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-1.334804684147753</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-1.340283880904367</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-1.345394305981268</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-1.350119724052571</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-1.354458502302428</v>
+      </c>
+      <c r="T46" t="n">
+        <v>-1.35842081734136</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-1.362025984289894</v>
+      </c>
+      <c r="V46" t="n">
+        <v>-1.365421121633945</v>
+      </c>
+      <c r="W46" t="n">
+        <v>-1.368502079675304</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-1.371303162719218</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>-1.373860107068864</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>-1.376209128902025</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>-1.378385881791531</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>-1.380424622977361</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>-1.382357445127253</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>-1.384213872140626</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>-1.386020498855599</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>-1.387800679723263</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>-1.389574528145568</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>-1.391358900465919</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>-1.393167382377015</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>-1.39501052684412</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>-1.396896032928292</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>-1.398828892915544</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>-1.400811736096832</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>-1.402845065794636</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>-1.404927621990443</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>-1.40705638805133</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>-1.40927868983218</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>-1.411534404134317</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>-1.41381859553426</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>-1.416125387343198</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>-1.418448354001929</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>-1.420780726894897</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1231,6 +7165,135 @@
       <c r="E47" t="n">
         <v>-0.9965520558542459</v>
       </c>
+      <c r="F47" t="n">
+        <v>-0.9993782444755814</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-1.003081475845384</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-1.007429743910927</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-1.012218487050069</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-1.017270337291108</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-1.022434944207001</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-1.027587886178533</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-1.032629411670182</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1.037482109201441</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-1.041983840326781</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-1.046203273853065</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-1.050118335144008</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-1.05372105064927</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-1.05701437524434</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-1.060010025806049</v>
+      </c>
+      <c r="U47" t="n">
+        <v>-1.062726364217423</v>
+      </c>
+      <c r="V47" t="n">
+        <v>-1.065285412984464</v>
+      </c>
+      <c r="W47" t="n">
+        <v>-1.067602671207417</v>
+      </c>
+      <c r="X47" t="n">
+        <v>-1.069707749181799</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>-1.071630181083558</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>-1.073399467132695</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>-1.075044327969238</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>-1.076592094657023</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>-1.07806809280568</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>-1.079495409837724</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>-1.08089463705292</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>-1.082283615708394</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>-1.083677518423716</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>-1.08508885750025</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>-1.086527463572991</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>-1.088000744157561</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>-1.089513838419942</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>-1.09106971978162</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>-1.092669524353933</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>-1.094312736181756</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>-1.095997497951364</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>-1.097720584673563</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>-1.099523722112598</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>-1.101352887346065</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>-1.10320380187536</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>-1.105071301511135</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>-1.106949852520525</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>-1.108833714331808</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1248,6 +7311,135 @@
       <c r="E48" t="n">
         <v>-0.8730803800446333</v>
       </c>
+      <c r="F48" t="n">
+        <v>-0.8744882727467679</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.8769287085313375</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.8800807856421794</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.8836881284234275</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.8875463665428738</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.8914945925792821</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.8954087166803621</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.8991961522086396</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.9027909839967111</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-0.906051041794266</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.9090540901149241</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-0.9117929167845797</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-0.9142729682050288</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-0.9165090748959356</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-0.9185229296406394</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-0.9203408761228072</v>
+      </c>
+      <c r="V48" t="n">
+        <v>-0.9220816746478384</v>
+      </c>
+      <c r="W48" t="n">
+        <v>-0.9236729365267875</v>
+      </c>
+      <c r="X48" t="n">
+        <v>-0.9251462521973371</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>-0.9265317735313074</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>-0.9278579412915886</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>-0.9291509131449099</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>-0.930434142173132</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>-0.9317280487832527</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>-0.9330499113983934</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>-0.9344138240373349</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>-0.9358307016920991</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>-0.9373084582016356</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>-0.9388521904796042</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>-0.9404643616742916</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>-0.9421451161892731</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>-0.9438925573874002</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>-0.9457029913657378</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>-0.9475712710902702</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>-0.9494910634257726</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>-0.9514551521196684</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>-0.953455598185305</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>-0.9555310105480365</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>-0.9576235208797205</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>-0.9597254192447445</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>-0.961828791401663</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>-0.9639258708159727</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>-0.9660091849708267</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1265,6 +7457,135 @@
       <c r="E49" t="n">
         <v>-0.633952573012118</v>
       </c>
+      <c r="F49" t="n">
+        <v>-0.6350318329692197</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.6371028119031478</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.6398473478545394</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.6430190503090356</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.646426084925468</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.6499197138749865</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.6533863604315738</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.6567416174273875</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.6599255860434536</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-0.6628278485145727</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.6654960085402181</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-0.6679240210570856</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-0.6701166121789248</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-0.672086749930774</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-0.6738533759180232</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-0.6754395512287913</v>
+      </c>
+      <c r="V49" t="n">
+        <v>-0.6769390061321676</v>
+      </c>
+      <c r="W49" t="n">
+        <v>-0.6783002990120106</v>
+      </c>
+      <c r="X49" t="n">
+        <v>-0.6795504992533017</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-0.6807159308483154</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>-0.6818214928283145</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>-0.6828901371592812</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>-0.6839424734647512</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>-0.6849965750132372</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>-0.6860677742041041</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>-0.6871686361674605</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>-0.6883090505656734</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>-0.6894962761053952</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>-0.690735112640697</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>-0.6920281420546218</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>-0.6933758991569738</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>-0.6947771258178033</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>-0.6962290564292308</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>-0.6977276251834176</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>-0.69926773065912</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>-0.7008434684935854</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>-0.7024483625237732</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>-0.7041088391520762</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>-0.7057836536604485</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>-0.7074661733870057</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>-0.7091497335115885</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>-0.7108277761397601</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>-0.7124939923046808</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1282,6 +7603,135 @@
       <c r="E50" t="n">
         <v>-0.04358770812818788</v>
       </c>
+      <c r="F50" t="n">
+        <v>-0.04641004510323783</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.04943825433009254</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.05257665811084526</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-0.05575145166910482</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.05890453839858173</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.06198975801080771</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.06497060190481634</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.06781895089943384</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.07051388243550481</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-0.07300646421334545</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.07532072978485842</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-0.07745354329770235</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-0.07940621090649336</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-0.08118347357011327</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-0.08279279640559555</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-0.08424380385127987</v>
+      </c>
+      <c r="V50" t="n">
+        <v>-0.08558470344642433</v>
+      </c>
+      <c r="W50" t="n">
+        <v>-0.08678692316427304</v>
+      </c>
+      <c r="X50" t="n">
+        <v>-0.08786391730968399</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>-0.08882895739695923</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>-0.08969525177966811</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>-0.09047570369038331</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>-0.09118267418499539</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>-0.09182785240094825</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>-0.09242206275570622</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>-0.09297517363834699</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>-0.0934960833058377</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>-0.0939926334799778</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>-0.09447161186043412</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>-0.09493881671177491</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>-0.09539904294792623</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>-0.09585614072411358</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>-0.09631312110830691</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>-0.09677218255298839</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>-0.09723480551009349</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>-0.09770185149500915</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>-0.0981735835071767</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>-0.09867487212840528</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>-0.09917831461631894</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>-0.09968346436727721</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>-0.1001894416224838</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>-0.1006950904108965</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>-0.10119906947364</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1299,6 +7749,135 @@
       <c r="E51" t="n">
         <v>-0.8653329570039292</v>
       </c>
+      <c r="F51" t="n">
+        <v>-0.8659562547183133</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.8674870704535803</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-0.8696299505061601</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-0.8721398621214662</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-0.8748194513919688</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.8775153982310655</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.8801137443984893</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.8825347022870119</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.8847275821245721</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-0.8865749807530944</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.888166018092821</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-0.8895111174320313</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-0.8906322896255797</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-0.8915593684393787</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-0.8923271888864169</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-0.8929731013581689</v>
+      </c>
+      <c r="V51" t="n">
+        <v>-0.8936084497893969</v>
+      </c>
+      <c r="W51" t="n">
+        <v>-0.8941827412570496</v>
+      </c>
+      <c r="X51" t="n">
+        <v>-0.8947320160438755</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>-0.8952890188464038</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>-0.8958830024264363</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>-0.8965392926315563</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>-0.8972790562344797</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>-0.8981191126169457</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>-0.8990720941475401</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>-0.900146597277856</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>-0.9013473356333339</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>-0.9026755683977474</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>-0.9041294478728351</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>-0.9057043157931822</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>-0.9073932144188795</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>-0.909187277038592</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>-0.9110760385511698</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>-0.9130479131808051</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>-0.9150905138620045</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>-0.9171909929346501</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>-0.9193363010353344</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>-0.9215443811854754</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>-0.9237721820526883</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>-0.9260078814395397</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>-0.9282400553389256</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>-0.930458012407033</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>-0.9326518917180752</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1316,6 +7895,135 @@
       <c r="E52" t="n">
         <v>-0.8653329570039292</v>
       </c>
+      <c r="F52" t="n">
+        <v>-0.8659562547183133</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.8674870704535803</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-0.8696299505061601</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-0.8721398621214662</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.8748194513919688</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.8775153982310655</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.8801137443984893</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.8825347022870119</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.8847275821245721</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-0.8865749807530944</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.888166018092821</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-0.8895111174320313</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-0.8906322896255797</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-0.8915593684393787</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-0.8923271888864169</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-0.8929731013581689</v>
+      </c>
+      <c r="V52" t="n">
+        <v>-0.8936084497893969</v>
+      </c>
+      <c r="W52" t="n">
+        <v>-0.8941827412570496</v>
+      </c>
+      <c r="X52" t="n">
+        <v>-0.8947320160438755</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>-0.8952890188464038</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>-0.8958830024264363</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>-0.8965392926315563</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>-0.8972790562344797</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>-0.8981191126169457</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>-0.8990720941475401</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>-0.900146597277856</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>-0.9013473356333339</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>-0.9026755683977474</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>-0.9041294478728351</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>-0.9057043157931822</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>-0.9073932144188795</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>-0.909187277038592</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>-0.9110760385511698</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>-0.9130479131808051</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>-0.9150905138620045</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>-0.9171909929346501</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>-0.9193363010353344</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>-0.9215443811854754</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>-0.9237721820526883</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>-0.9260078814395397</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>-0.9282400553389256</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>-0.930458012407033</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>-0.9326518917180752</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1333,6 +8041,135 @@
       <c r="E53" t="n">
         <v>-1.139975316177327</v>
       </c>
+      <c r="F53" t="n">
+        <v>-1.142570262235755</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1.14611035927706</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-1.150343733203125</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-1.155042908258792</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1.160010154119888</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-1.165079947514245</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-1.170118372076379</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-1.175021276531334</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-1.179710976132744</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-1.183984439832134</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-1.187966592326517</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-1.191641498141228</v>
+      </c>
+      <c r="R53" t="n">
+        <v>-1.195007724681904</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-1.198074932911839</v>
+      </c>
+      <c r="T53" t="n">
+        <v>-1.20086138161556</v>
+      </c>
+      <c r="U53" t="n">
+        <v>-1.203391410518755</v>
+      </c>
+      <c r="V53" t="n">
+        <v>-1.205811839713355</v>
+      </c>
+      <c r="W53" t="n">
+        <v>-1.208020083415383</v>
+      </c>
+      <c r="X53" t="n">
+        <v>-1.210049201418712</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>-1.211931744419471</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>-1.213699321599439</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>-1.215381855443237</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>-1.217007059970093</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>-1.218599798714537</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>-1.220182062372213</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>-1.221772793377762</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>-1.223387625717069</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>-1.225039184602031</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>-1.22673717133709</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>-1.228488328492479</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>-1.230296893551044</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>-1.232164808657497</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>-1.23409179450926</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>-1.236075838463033</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>-1.238113385551826</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>-1.240199668922116</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>-1.242328769087485</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>-1.244558873603569</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>-1.246813937969049</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>-1.249087451536408</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>-1.25137234988082</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>-1.253661485292016</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>-1.255947746321634</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1350,6 +8187,135 @@
       <c r="E54" t="n">
         <v>-0.1677599661093574</v>
       </c>
+      <c r="F54" t="n">
+        <v>-0.1687589693896477</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.1702426478292478</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.1720291665441571</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-0.1739833657736312</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.1760050263954523</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.1780206331601967</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.1799777523659147</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.1818407091411432</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.1835875204815678</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-0.1851724219009857</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.1866259074789207</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-0.1879535558981953</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-0.1891655903864125</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-0.1902752497860094</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-0.1912975113263792</v>
+      </c>
+      <c r="U54" t="n">
+        <v>-0.1922481777620081</v>
+      </c>
+      <c r="V54" t="n">
+        <v>-0.1931742199953119</v>
+      </c>
+      <c r="W54" t="n">
+        <v>-0.1940539307911565</v>
+      </c>
+      <c r="X54" t="n">
+        <v>-0.194902172931792</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>-0.1957321877357675</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>-0.1965556356067467</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>-0.1973824741246705</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>-0.1982208685754074</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>-0.1990772742074653</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>-0.199956393533974</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>-0.2008612780690451</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>-0.2017935373215736</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>-0.2027533913042235</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>-0.2037398441341809</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>-0.2047509349176685</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>-0.2057838201192556</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>-0.2068349558160649</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>-0.2079003344589036</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>-0.2089755566261196</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>-0.2100560047185332</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>-0.2111369173092427</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>-0.2122136762984664</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>-0.2133027555100738</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>-0.2143789595061027</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>-0.2154382958822893</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>-0.2164770098010045</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>-0.2174916486935908</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>-0.2184791296171574</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1367,6 +8333,135 @@
       <c r="E55" t="n">
         <v>-1.000801930520487</v>
       </c>
+      <c r="F55" t="n">
+        <v>-1.002761890519582</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-1.006316972696008</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-1.011061714565924</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-1.016658415503539</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-1.022824667545568</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-1.029325546080551</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-1.035967514884665</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-1.042593832644259</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-1.049079967712601</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-1.05525510708423</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-1.061117463707424</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-1.066619924136449</v>
+      </c>
+      <c r="R55" t="n">
+        <v>-1.071735038693787</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-1.076451245448431</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-1.080769991712893</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-1.084703025634385</v>
+      </c>
+      <c r="V55" t="n">
+        <v>-1.088372211714739</v>
+      </c>
+      <c r="W55" t="n">
+        <v>-1.091691077468126</v>
+      </c>
+      <c r="X55" t="n">
+        <v>-1.094689878667304</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>-1.097400768107979</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>-1.099857275583021</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>-1.102093264568772</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>-1.104142057233548</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>-1.106035595521621</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>-1.107803980267815</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>-1.109475033405076</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>-1.111073887785215</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>-1.112622925825552</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>-1.114141678716589</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>-1.115646709221954</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>-1.11715180138581</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>-1.118668062728087</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>-1.120203977244845</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>-1.121765720923975</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>-1.123357329771802</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>-1.124980990940613</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>-1.126637068992564</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>-1.128383495467534</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>-1.130153801238544</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>-1.131946351473754</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>-1.13375816697393</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>-1.135585458934211</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>-1.137423831988157</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1384,6 +8479,135 @@
       <c r="E56" t="n">
         <v>-0.8601787106336001</v>
       </c>
+      <c r="F56" t="n">
+        <v>-0.8638916144436837</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.8685348274372745</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-0.8738180838513253</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.8795150273176351</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-0.8854452454639757</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.891463237697754</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.8974517039575507</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.9033174923536458</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.9089882774237973</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-0.914376091981397</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-0.9194669037792893</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-0.9242397040841995</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-0.9286853284951054</v>
+      </c>
+      <c r="S56" t="n">
+        <v>-0.9328043743801732</v>
+      </c>
+      <c r="T56" t="n">
+        <v>-0.9366052668860319</v>
+      </c>
+      <c r="U56" t="n">
+        <v>-0.9401026484196027</v>
+      </c>
+      <c r="V56" t="n">
+        <v>-0.9433814291959858</v>
+      </c>
+      <c r="W56" t="n">
+        <v>-0.9463917118657073</v>
+      </c>
+      <c r="X56" t="n">
+        <v>-0.9491581440933531</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>-0.9517064171017064</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>-0.9540625835317894</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>-0.9562523738928616</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>-0.9583005929139324</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>-0.9602307582651812</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>-0.9620646428260639</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>-0.9638220360583697</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>-0.9655206813074032</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>-0.9671760846041021</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>-0.9688015112080314</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>-0.9704081171507903</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>-0.972004931288641</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>-0.9735989880622687</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>-0.9751955570203663</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>-0.9767982158544546</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>-0.9784090623596867</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>-0.9800289388673656</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>-0.9816574820352775</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>-0.9833240925832399</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>-0.9849942245653742</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>-0.9866660925547039</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>-0.9883372324749562</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>-0.9900046662366535</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>-0.9916650933936132</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1401,6 +8625,135 @@
       <c r="E57" t="n">
         <v>-0.9352104261229125</v>
       </c>
+      <c r="F57" t="n">
+        <v>-0.9325466544750654</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.9316173979450396</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-0.9321653575703501</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-0.9339747002892799</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-0.9368559571602542</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.9406381115404329</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.9451643554904605</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.9502903262913061</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.9558830638283589</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-0.9617601377363776</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-0.9678703770906492</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-0.9741144084882339</v>
+      </c>
+      <c r="R57" t="n">
+        <v>-0.9804049011973164</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-0.9866661049240631</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-0.9928333498769081</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-0.9988524794947957</v>
+      </c>
+      <c r="V57" t="n">
+        <v>-1.004743253708939</v>
+      </c>
+      <c r="W57" t="n">
+        <v>-1.01040465723859</v>
+      </c>
+      <c r="X57" t="n">
+        <v>-1.015809664640289</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>-1.020938618429772</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>-1.025778632689368</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>-1.030322875469069</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>-1.034569840193991</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>-1.038522611256462</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>-1.042188171031588</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>-1.045576739986452</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>-1.048701128717803</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>-1.051576179942198</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>-1.054218242489214</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>-1.056644662474837</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>-1.05887339009299</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>-1.060922605050517</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>-1.062810355538887</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>-1.064554323222208</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>-1.066171578004959</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>-1.067678440646185</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>-1.069090175013167</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>-1.070461096115088</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>-1.07175958568244</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>-1.072998775306224</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>-1.074190304412152</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>-1.075344439019083</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>-1.07647011148457</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1418,6 +8771,135 @@
       <c r="E58" t="n">
         <v>-1.103330664249167</v>
       </c>
+      <c r="F58" t="n">
+        <v>-1.098517608550353</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1.0939721941111</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-1.089963239433759</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-1.086659967447553</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1.084163754616027</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-1.082528347437025</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-1.081772410596692</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-1.081888172760877</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-1.082847042654447</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-1.084583801200254</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-1.08707508597482</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-1.090249850733289</v>
+      </c>
+      <c r="R58" t="n">
+        <v>-1.094031522832961</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-1.098340117779104</v>
+      </c>
+      <c r="T58" t="n">
+        <v>-1.103094500023841</v>
+      </c>
+      <c r="U58" t="n">
+        <v>-1.108213951306029</v>
+      </c>
+      <c r="V58" t="n">
+        <v>-1.113608176879672</v>
+      </c>
+      <c r="W58" t="n">
+        <v>-1.119217595704441</v>
+      </c>
+      <c r="X58" t="n">
+        <v>-1.124971905742727</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>-1.13080533463008</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>-1.136657503157866</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>-1.142473835507943</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>-1.148205871882363</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>-1.153811162166898</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>-1.159253521092561</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>-1.164502865902072</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>-1.169534803200998</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>-1.17433059083815</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>-1.178876740127069</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>-1.183164440822586</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>-1.187189350191493</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>-1.190951093241616</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>-1.194452651233894</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>-1.197700082514047</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>-1.200701990231261</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>-1.203469102623754</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>-1.20601378468401</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>-1.208383430767454</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>-1.210556408276185</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>-1.212547961252111</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>-1.214373619765432</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>-1.216049066375299</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>-1.217589829858267</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1435,6 +8917,135 @@
       <c r="E59" t="n">
         <v>-0.807371616016537</v>
       </c>
+      <c r="F59" t="n">
+        <v>-0.8037043217984547</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.8005962438208126</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.7980286200826119</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.7959746275548045</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-0.7944069320814766</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.7933009445728225</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.792635420129045</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.7923917660985804</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.7925530869563012</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-0.7930850329730921</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.7939965990537688</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-0.7952682796766827</v>
+      </c>
+      <c r="R59" t="n">
+        <v>-0.7968792904385169</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-0.7988071649217521</v>
+      </c>
+      <c r="T59" t="n">
+        <v>-0.8010277834027699</v>
+      </c>
+      <c r="U59" t="n">
+        <v>-0.8035153727862944</v>
+      </c>
+      <c r="V59" t="n">
+        <v>-0.8062406661591336</v>
+      </c>
+      <c r="W59" t="n">
+        <v>-0.8091754826104112</v>
+      </c>
+      <c r="X59" t="n">
+        <v>-0.812292167955224</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>-0.8155625153038254</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>-0.818958280067367</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>-0.8224515493007696</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>-0.8260151202348651</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>-0.8296227164893984</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>-0.8332494094396843</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>-0.8368718394973081</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>-0.8404683198945014</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>-0.8440191212001129</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>-0.8475065561548341</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>-0.8509149597327789</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>-0.8542308316078333</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>-0.8574428013207847</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>-0.8605415108301083</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>-0.8635196417633131</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>-0.8663717799033545</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>-0.8690942429803955</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>-0.871685129633859</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>-0.8741747821582229</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>-0.8765330370387394</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>-0.8787618734997591</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>-0.8808643039020579</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>-0.8828443040568246</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>-0.8847066324341533</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1452,6 +9063,135 @@
       <c r="E60" t="n">
         <v>-0.4429090032435827</v>
       </c>
+      <c r="F60" t="n">
+        <v>-0.435870031194717</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.4298923463412944</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.4248922428932467</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.4208016442508833</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.4175634615882231</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-0.4151277112069858</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-0.4134484526297706</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.4124810763666339</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.4121811686011503</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-0.4125456905389969</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-0.4134837449455844</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-0.4149451141674921</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-0.4168781581431973</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-0.4192303266485923</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-0.4219486235945734</v>
+      </c>
+      <c r="U60" t="n">
+        <v>-0.4249801505771116</v>
+      </c>
+      <c r="V60" t="n">
+        <v>-0.4282329715916962</v>
+      </c>
+      <c r="W60" t="n">
+        <v>-0.4317012878513973</v>
+      </c>
+      <c r="X60" t="n">
+        <v>-0.4353361537635387</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>-0.4390910415312866</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>-0.4429220184526996</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>-0.4467881092692116</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>-0.4506515998149953</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>-0.4544782663183479</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>-0.4582375349048122</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>-0.4619025591072052</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>-0.4654502314255746</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>-0.468861145831129</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>-0.4721194921869345</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>-0.4752129046932998</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>-0.4781322877231012</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>-0.4808715928078266</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>-0.4834275714524208</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>-0.485799529963628</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>-0.487989053236354</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>-0.4899996054440538</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>-0.4918366497750611</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>-0.4935224804592507</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>-0.495049682337235</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>-0.4964269210507601</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>-0.4976636879544631</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>-0.4987700263101353</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>-0.4997563160835043</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1469,6 +9209,135 @@
       <c r="E61" t="n">
         <v>0.3798886837700657</v>
       </c>
+      <c r="F61" t="n">
+        <v>0.3813312465096524</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.3825970713918386</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.3836917654933313</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.384623023421797</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.3853995843426027</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.3860306822274199</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.3865259006707332</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.3868951054734663</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.3871485240857087</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.387301960193643</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.3873583599459191</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.3873296033105209</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.3872271958712341</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.3870623615333953</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.3868459368227381</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.3865883056972158</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.3862955504820038</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.3859809517590633</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.3856525215630808</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.3853178688531316</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.3849839240467</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.3846568961278503</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0.3843422493835625</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.3840447332544319</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.3837683586403778</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.3835164264366108</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0.3832915891068148</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0.3830958537061752</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0.382930633356579</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0.3827968245001612</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0.3826948242467799</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.3826245902829529</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0.3825857198323245</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0.3825774710002705</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0.3825988267796892</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.3826485443032513</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>0.3827252026320902</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.3828144283431019</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0.3829285624985948</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>0.383065714179593</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0.383224038144316</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0.3834016858188129</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>0.3835968351539836</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1486,6 +9355,135 @@
       <c r="E62" t="n">
         <v>-1.149136181967264</v>
       </c>
+      <c r="F62" t="n">
+        <v>-1.145814565069087</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-1.144887986894489</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-1.145960463594744</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-1.148736443859338</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1.152978336097926</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-1.15848196646763</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-1.165062778396099</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-1.172548945342991</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-1.180777989581545</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-1.189644847183281</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-1.198936100639845</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-1.208512912963365</v>
+      </c>
+      <c r="R62" t="n">
+        <v>-1.218248655529084</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-1.228028595344618</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-1.237749973695746</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-1.247322243761754</v>
+      </c>
+      <c r="V62" t="n">
+        <v>-1.256684767538753</v>
+      </c>
+      <c r="W62" t="n">
+        <v>-1.26576356942811</v>
+      </c>
+      <c r="X62" t="n">
+        <v>-1.274503984159554</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>-1.282860711194514</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>-1.290798336165041</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>-1.298290860433823</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>-1.30532101548721</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>-1.311879639629097</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>-1.31796475294471</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>-1.323580753878648</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>-1.328737685880767</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>-1.333450316457318</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>-1.337737360066458</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>-1.341620790771016</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>-1.345125057065757</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>-1.348276429517975</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>-1.351102437009512</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>-1.353631273995717</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>-1.355891321649976</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>-1.357910624499583</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>-1.359716775113406</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>-1.361422302460284</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>-1.362955124648923</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>-1.364341423036791</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>-1.36560519129618</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>-1.366768438039786</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>-1.367851186371036</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1503,6 +9501,135 @@
       <c r="E63" t="n">
         <v>-0.6646803372542454</v>
       </c>
+      <c r="F63" t="n">
+        <v>-0.6495724768636778</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.635845837330987</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.6234378888474199</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-0.61225482050347</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.6021994755898846</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.5931851400460801</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.585140332218814</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.5780077291626275</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.5717426273817644</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-0.5663026077983506</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-0.5616831115801523</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-0.5578543897176104</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-0.5547885707503538</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-0.5524567745109197</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-0.5508280711793343</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-0.5498684890260139</v>
+      </c>
+      <c r="V63" t="n">
+        <v>-0.5495066459124025</v>
+      </c>
+      <c r="W63" t="n">
+        <v>-0.5497287791311949</v>
+      </c>
+      <c r="X63" t="n">
+        <v>-0.5504945033197108</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>-0.5517596194693294</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>-0.5534779295362282</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>-0.5556018249935023</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>-0.5580829585763455</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>-0.5608725827444599</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>-0.5639224903232882</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>-0.5671855629428981</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>-0.570616041392921</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>-0.5741703209854595</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>-0.5778073176327119</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>-0.5814885579670752</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>-0.5851787313425926</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>-0.5888458356627705</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>-0.5924610823476782</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>-0.5959992048253192</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>-0.5994383598443781</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>-0.6027599738859896</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>-0.6059489700180468</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>-0.6089810304871814</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>-0.6118657396268656</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>-0.6145957644943307</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>-0.6171661509677412</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>-0.6195745060076425</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>-0.6218206633015755</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1520,6 +9647,135 @@
       <c r="E64" t="n">
         <v>-0.9185548099723042</v>
       </c>
+      <c r="F64" t="n">
+        <v>-0.9099977918129478</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.9023260186299282</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.8956570709501185</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-0.8900255378788919</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-0.8854196349418507</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.8818031173951014</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-0.8791268988463418</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.8773347907225691</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.8763666647084316</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-0.8760842200792714</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-0.8765194980362875</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-0.877603606966522</v>
+      </c>
+      <c r="R64" t="n">
+        <v>-0.8792686606270007</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-0.8814476919642953</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-0.884075367372899</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-0.8870880709461997</v>
+      </c>
+      <c r="V64" t="n">
+        <v>-0.8904373768846039</v>
+      </c>
+      <c r="W64" t="n">
+        <v>-0.8940514965953891</v>
+      </c>
+      <c r="X64" t="n">
+        <v>-0.8978760349960897</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>-0.9018594569712716</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>-0.905953832625964</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>-0.9101150260339944</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>-0.9143029363376387</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>-0.9184811916214026</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>-0.922617625866564</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>-0.9266842027823861</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>-0.9306565696326321</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>-0.934514379274904</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>-0.938241068970523</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>-0.9418233186298776</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>-0.9452512330618686</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>-0.9485180319484754</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>-0.9516194790554375</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>-0.9545539665307891</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>-0.9573220974654881</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>-0.9599263676706399</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>-0.962371018837002</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>-0.9647123593902351</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>-0.9669032984344754</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>-0.9689515690266284</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>-0.9708654515598319</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>-0.9726538738445913</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>-0.9743261038336726</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1537,6 +9793,135 @@
       <c r="E65" t="n">
         <v>-0.0382335038332436</v>
       </c>
+      <c r="F65" t="n">
+        <v>-0.03483358337433334</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.03192263057602456</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.02939886771345426</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.02721364067774707</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.02534926529446127</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.02380416900054627</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.02258417053549586</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.02169662148140344</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.0211480566585141</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-0.02099808648794767</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.02118226462918312</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-0.02169543487689785</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-0.0225274791125344</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-0.02366341601739338</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-0.02508371802405773</v>
+      </c>
+      <c r="U65" t="n">
+        <v>-0.02676519106454658</v>
+      </c>
+      <c r="V65" t="n">
+        <v>-0.02863005482679391</v>
+      </c>
+      <c r="W65" t="n">
+        <v>-0.03070502663321919</v>
+      </c>
+      <c r="X65" t="n">
+        <v>-0.0329611116505835</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>-0.03536785405105106</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>-0.03789441513597069</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>-0.04051021077019711</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>-0.0431853710831062</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>-0.04589146519593833</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>-0.04860159349957234</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>-0.05129072938063597</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>-0.05393622145977966</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>-0.05651767138620913</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>-0.05901707930129293</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>-0.06141914498161587</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>-0.06371099045637479</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>-0.06588215293438052</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>-0.06792472720954346</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>-0.06983299831319106</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>-0.07160339508414756</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>-0.07323413027556666</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>-0.07472565085510666</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>-0.07607710331707769</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>-0.07729721854534403</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>-0.07838993741202639</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>-0.07936029649768542</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>-0.08021416812861883</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>-0.08095815082859657</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1554,6 +9939,135 @@
       <c r="E66" t="n">
         <v>-0.7322263160327007</v>
       </c>
+      <c r="F66" t="n">
+        <v>-0.7277295402943179</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-0.7249257619089087</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-0.7236907222893841</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-0.7238987727846588</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-0.7254217389558714</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-0.7281290023214697</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.7318881266676829</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.7365660832477116</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.7420306365070211</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-0.7482304289867603</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-0.7549456885460095</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-0.7620537524771422</v>
+      </c>
+      <c r="R66" t="n">
+        <v>-0.7694400596636841</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-0.7769986600758779</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-0.7846328176041526</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-0.7922553759024963</v>
+      </c>
+      <c r="V66" t="n">
+        <v>-0.7997715190887865</v>
+      </c>
+      <c r="W66" t="n">
+        <v>-0.8071434435311422</v>
+      </c>
+      <c r="X66" t="n">
+        <v>-0.8143126336085256</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>-0.821229370031297</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>-0.8278528015752907</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>-0.8341505669282577</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>-0.8400983074150625</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>-0.8456790643049663</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>-0.8508827054820514</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>-0.8557052518469783</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>-0.8601481683497714</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>-0.8642177346895756</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>-0.8679243546873452</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>-0.8712818708608918</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>-0.8743069869480791</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>-0.8770186557580191</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>-0.8794374967378522</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>-0.8815853315857965</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>-0.8834846963916466</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>-0.8851583931012788</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>-0.8866292107360463</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>-0.8879650852126215</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>-0.8891363871979954</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>-0.8901649173972552</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>-0.8910711880195623</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>-0.8918744120353848</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>-0.8925923937855877</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1570,6 +10084,135 @@
       </c>
       <c r="E67" t="n">
         <v>-0.6737390719878839</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.6757575320149009</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.6784919270189013</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.6818032953184781</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.6856270039706401</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.6899327884998997</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.6947011672912423</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.6999112407274922</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.7055357140806895</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.7115391359582688</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-0.71796245860693</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-0.7246530042151422</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-0.7315569415706251</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-0.7386168959811866</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-0.7457745997173331</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-0.7529722155459446</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-0.7601540300753638</v>
+      </c>
+      <c r="V67" t="n">
+        <v>-0.7672322047106391</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-0.7742037752027731</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-0.7810235298450857</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-0.7876519976626351</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>-0.794054802267953</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>-0.8002028362664857</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>-0.8060722120547985</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>-0.8116445677172763</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>-0.8169064709353018</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>-0.8218491928677932</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>-0.8264687389972223</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>-0.8307650654064491</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>-0.8347417125629133</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>-0.8384057103127156</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>-0.8417667716628033</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>-0.8448369025496704</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>-0.8476302727769928</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>-0.8501624866527452</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>-0.8524503167754701</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>-0.8545113354175546</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>-0.856363607146848</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>-0.858038324719205</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>-0.8595390846951668</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>-0.860884072236092</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>-0.8620911278055875</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>-0.8631771996287171</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>-0.8641583125587434</v>
       </c>
     </row>
   </sheetData>

--- a/PLSstatic_predicted_variables_matrix_12.xlsx
+++ b/PLSstatic_predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV67"/>
+  <dimension ref="A1:AU67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,9 +575,6 @@
       <c r="AU1" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -721,9 +718,6 @@
       <c r="AU2" t="n">
         <v>-0.2708983113634847</v>
       </c>
-      <c r="AV2" t="n">
-        <v>-0.2716898746877677</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -867,9 +861,6 @@
       <c r="AU3" t="n">
         <v>0.227302045827518</v>
       </c>
-      <c r="AV3" t="n">
-        <v>0.2279314512503688</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1013,9 +1004,6 @@
       <c r="AU4" t="n">
         <v>0.2147894492925882</v>
       </c>
-      <c r="AV4" t="n">
-        <v>0.2145668222745618</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1159,9 +1147,6 @@
       <c r="AU5" t="n">
         <v>-0.09012535651169792</v>
       </c>
-      <c r="AV5" t="n">
-        <v>-0.09020450024814915</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1305,9 +1290,6 @@
       <c r="AU6" t="n">
         <v>0.1742010059929208</v>
       </c>
-      <c r="AV6" t="n">
-        <v>0.1752056338884779</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1451,9 +1433,6 @@
       <c r="AU7" t="n">
         <v>-0.4399612767740407</v>
       </c>
-      <c r="AV7" t="n">
-        <v>-0.4408448705078972</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1597,9 +1576,6 @@
       <c r="AU8" t="n">
         <v>-0.1551350420895549</v>
       </c>
-      <c r="AV8" t="n">
-        <v>-0.1559083489783176</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1743,9 +1719,6 @@
       <c r="AU9" t="n">
         <v>-0.3624635555806626</v>
       </c>
-      <c r="AV9" t="n">
-        <v>-0.3630694026367806</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1889,9 +1862,6 @@
       <c r="AU10" t="n">
         <v>0.3950232980446854</v>
       </c>
-      <c r="AV10" t="n">
-        <v>0.3954936501818108</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2035,9 +2005,6 @@
       <c r="AU11" t="n">
         <v>-0.2315858539242847</v>
       </c>
-      <c r="AV11" t="n">
-        <v>-0.2322473653251229</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2181,9 +2148,6 @@
       <c r="AU12" t="n">
         <v>-0.130250810388498</v>
       </c>
-      <c r="AV12" t="n">
-        <v>-0.1297934728506119</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2327,9 +2291,6 @@
       <c r="AU13" t="n">
         <v>-0.07260490854800145</v>
       </c>
-      <c r="AV13" t="n">
-        <v>-0.07255838426699243</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2473,9 +2434,6 @@
       <c r="AU14" t="n">
         <v>0.008102391706226376</v>
       </c>
-      <c r="AV14" t="n">
-        <v>0.01012856430533118</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2619,9 +2577,6 @@
       <c r="AU15" t="n">
         <v>-0.1518794761159703</v>
       </c>
-      <c r="AV15" t="n">
-        <v>-0.1495460082696863</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2765,9 +2720,6 @@
       <c r="AU16" t="n">
         <v>0.2797625189942411</v>
       </c>
-      <c r="AV16" t="n">
-        <v>0.2824844907984715</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2911,9 +2863,6 @@
       <c r="AU17" t="n">
         <v>0.4144787843138841</v>
       </c>
-      <c r="AV17" t="n">
-        <v>0.4179218864086763</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3057,9 +3006,6 @@
       <c r="AU18" t="n">
         <v>-0.1905222871676821</v>
       </c>
-      <c r="AV18" t="n">
-        <v>-0.1890525852271726</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3203,9 +3149,6 @@
       <c r="AU19" t="n">
         <v>0.2727457545653116</v>
       </c>
-      <c r="AV19" t="n">
-        <v>0.2743688614506533</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3349,9 +3292,6 @@
       <c r="AU20" t="n">
         <v>0.1603016423965068</v>
       </c>
-      <c r="AV20" t="n">
-        <v>0.1633758192034606</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3495,9 +3435,6 @@
       <c r="AU21" t="n">
         <v>0.4875315981968673</v>
       </c>
-      <c r="AV21" t="n">
-        <v>0.489664658405792</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3641,9 +3578,6 @@
       <c r="AU22" t="n">
         <v>0.2315677177568268</v>
       </c>
-      <c r="AV22" t="n">
-        <v>0.234490215811122</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3787,9 +3721,6 @@
       <c r="AU23" t="n">
         <v>-0.207096309974348</v>
       </c>
-      <c r="AV23" t="n">
-        <v>-0.205028122080768</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3933,9 +3864,6 @@
       <c r="AU24" t="n">
         <v>1.493368072437004</v>
       </c>
-      <c r="AV24" t="n">
-        <v>1.505875482198982</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -4079,9 +4007,6 @@
       <c r="AU25" t="n">
         <v>0.3457082601674917</v>
       </c>
-      <c r="AV25" t="n">
-        <v>0.346713037025909</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4225,9 +4150,6 @@
       <c r="AU26" t="n">
         <v>0.1506385097959431</v>
       </c>
-      <c r="AV26" t="n">
-        <v>0.1521777862102158</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4371,9 +4293,6 @@
       <c r="AU27" t="n">
         <v>0.05107825671034459</v>
       </c>
-      <c r="AV27" t="n">
-        <v>0.05257361397871797</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4517,9 +4436,6 @@
       <c r="AU28" t="n">
         <v>0.8878238883768892</v>
       </c>
-      <c r="AV28" t="n">
-        <v>0.8896804055985641</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4663,9 +4579,6 @@
       <c r="AU29" t="n">
         <v>1.759561087069436</v>
       </c>
-      <c r="AV29" t="n">
-        <v>1.775390848971196</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4809,9 +4722,6 @@
       <c r="AU30" t="n">
         <v>0.7076930126682095</v>
       </c>
-      <c r="AV30" t="n">
-        <v>0.7094808961433612</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4955,9 +4865,6 @@
       <c r="AU31" t="n">
         <v>-0.4441068097986599</v>
       </c>
-      <c r="AV31" t="n">
-        <v>-0.4437403714829422</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -5101,9 +5008,6 @@
       <c r="AU32" t="n">
         <v>0.5858630585855548</v>
       </c>
-      <c r="AV32" t="n">
-        <v>0.5872669469903417</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5247,9 +5151,6 @@
       <c r="AU33" t="n">
         <v>0.8029141231534084</v>
       </c>
-      <c r="AV33" t="n">
-        <v>0.8041378222290712</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5393,9 +5294,6 @@
       <c r="AU34" t="n">
         <v>-0.8712433943279602</v>
       </c>
-      <c r="AV34" t="n">
-        <v>-0.8718103534745941</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5539,9 +5437,6 @@
       <c r="AU35" t="n">
         <v>0.8668465014808321</v>
       </c>
-      <c r="AV35" t="n">
-        <v>0.8671117320885132</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5685,9 +5580,6 @@
       <c r="AU36" t="n">
         <v>0.8352944100194292</v>
       </c>
-      <c r="AV36" t="n">
-        <v>0.8351087174530113</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5831,9 +5723,6 @@
       <c r="AU37" t="n">
         <v>0.8032998816949874</v>
       </c>
-      <c r="AV37" t="n">
-        <v>0.8029706869884022</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5977,9 +5866,6 @@
       <c r="AU38" t="n">
         <v>0.6845634500996554</v>
       </c>
-      <c r="AV38" t="n">
-        <v>0.685457047822975</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -6123,9 +6009,6 @@
       <c r="AU39" t="n">
         <v>0.6434341639810834</v>
       </c>
-      <c r="AV39" t="n">
-        <v>0.6432611060757526</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -6269,9 +6152,6 @@
       <c r="AU40" t="n">
         <v>0.8291004753828354</v>
       </c>
-      <c r="AV40" t="n">
-        <v>0.8292408820307415</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6415,9 +6295,6 @@
       <c r="AU41" t="n">
         <v>0.6085015861433537</v>
       </c>
-      <c r="AV41" t="n">
-        <v>0.6089015871872127</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6561,9 +6438,6 @@
       <c r="AU42" t="n">
         <v>0.682347884970355</v>
       </c>
-      <c r="AV42" t="n">
-        <v>0.6824257319831859</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6707,9 +6581,6 @@
       <c r="AU43" t="n">
         <v>0.7185497192813313</v>
       </c>
-      <c r="AV43" t="n">
-        <v>0.7190749173584134</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6853,9 +6724,6 @@
       <c r="AU44" t="n">
         <v>0.7517857335241397</v>
       </c>
-      <c r="AV44" t="n">
-        <v>0.7516924211123507</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6999,9 +6867,6 @@
       <c r="AU45" t="n">
         <v>0.7739373193719233</v>
       </c>
-      <c r="AV45" t="n">
-        <v>0.7729223731198023</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -7145,9 +7010,6 @@
       <c r="AU46" t="n">
         <v>-1.418448354001929</v>
       </c>
-      <c r="AV46" t="n">
-        <v>-1.420780726894897</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -7291,9 +7153,6 @@
       <c r="AU47" t="n">
         <v>-1.106949852520525</v>
       </c>
-      <c r="AV47" t="n">
-        <v>-1.108833714331808</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7437,9 +7296,6 @@
       <c r="AU48" t="n">
         <v>-0.9639258708159727</v>
       </c>
-      <c r="AV48" t="n">
-        <v>-0.9660091849708267</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7583,9 +7439,6 @@
       <c r="AU49" t="n">
         <v>-0.7108277761397601</v>
       </c>
-      <c r="AV49" t="n">
-        <v>-0.7124939923046808</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7729,9 +7582,6 @@
       <c r="AU50" t="n">
         <v>-0.1006950904108965</v>
       </c>
-      <c r="AV50" t="n">
-        <v>-0.10119906947364</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7875,9 +7725,6 @@
       <c r="AU51" t="n">
         <v>-0.930458012407033</v>
       </c>
-      <c r="AV51" t="n">
-        <v>-0.9326518917180752</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -8021,9 +7868,6 @@
       <c r="AU52" t="n">
         <v>-0.930458012407033</v>
       </c>
-      <c r="AV52" t="n">
-        <v>-0.9326518917180752</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -8167,9 +8011,6 @@
       <c r="AU53" t="n">
         <v>-1.253661485292016</v>
       </c>
-      <c r="AV53" t="n">
-        <v>-1.255947746321634</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -8313,9 +8154,6 @@
       <c r="AU54" t="n">
         <v>-0.2174916486935908</v>
       </c>
-      <c r="AV54" t="n">
-        <v>-0.2184791296171574</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -8459,9 +8297,6 @@
       <c r="AU55" t="n">
         <v>-1.135585458934211</v>
       </c>
-      <c r="AV55" t="n">
-        <v>-1.137423831988157</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8605,9 +8440,6 @@
       <c r="AU56" t="n">
         <v>-0.9900046662366535</v>
       </c>
-      <c r="AV56" t="n">
-        <v>-0.9916650933936132</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8751,9 +8583,6 @@
       <c r="AU57" t="n">
         <v>-1.075344439019083</v>
       </c>
-      <c r="AV57" t="n">
-        <v>-1.07647011148457</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8897,9 +8726,6 @@
       <c r="AU58" t="n">
         <v>-1.216049066375299</v>
       </c>
-      <c r="AV58" t="n">
-        <v>-1.217589829858267</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -9043,9 +8869,6 @@
       <c r="AU59" t="n">
         <v>-0.8828443040568246</v>
       </c>
-      <c r="AV59" t="n">
-        <v>-0.8847066324341533</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -9189,9 +9012,6 @@
       <c r="AU60" t="n">
         <v>-0.4987700263101353</v>
       </c>
-      <c r="AV60" t="n">
-        <v>-0.4997563160835043</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -9335,9 +9155,6 @@
       <c r="AU61" t="n">
         <v>0.3834016858188129</v>
       </c>
-      <c r="AV61" t="n">
-        <v>0.3835968351539836</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -9481,9 +9298,6 @@
       <c r="AU62" t="n">
         <v>-1.366768438039786</v>
       </c>
-      <c r="AV62" t="n">
-        <v>-1.367851186371036</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9627,9 +9441,6 @@
       <c r="AU63" t="n">
         <v>-0.6195745060076425</v>
       </c>
-      <c r="AV63" t="n">
-        <v>-0.6218206633015755</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9773,9 +9584,6 @@
       <c r="AU64" t="n">
         <v>-0.9726538738445913</v>
       </c>
-      <c r="AV64" t="n">
-        <v>-0.9743261038336726</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9919,9 +9727,6 @@
       <c r="AU65" t="n">
         <v>-0.08021416812861883</v>
       </c>
-      <c r="AV65" t="n">
-        <v>-0.08095815082859657</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -10065,9 +9870,6 @@
       <c r="AU66" t="n">
         <v>-0.8918744120353848</v>
       </c>
-      <c r="AV66" t="n">
-        <v>-0.8925923937855877</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -10210,9 +10012,6 @@
       </c>
       <c r="AU67" t="n">
         <v>-0.8631771996287171</v>
-      </c>
-      <c r="AV67" t="n">
-        <v>-0.8641583125587434</v>
       </c>
     </row>
   </sheetData>
